--- a/assignment03.xlsx
+++ b/assignment03.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mm/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mm/Desktop/245/week3/assignment3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B051397-A01E-5340-898C-417B5D9DBD4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823670E6-D9D9-C94B-8022-F54D0D986411}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="640" windowWidth="26440" windowHeight="16020" xr2:uid="{3FC50884-7A78-B545-9086-3FD8FEEBD34A}"/>
+    <workbookView xWindow="1780" yWindow="460" windowWidth="26440" windowHeight="16020" xr2:uid="{3FC50884-7A78-B545-9086-3FD8FEEBD34A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -823,7 +823,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.7503235362906366E-2"/>
+          <c:y val="0.10181538461538463"/>
+          <c:w val="0.91269478443907381"/>
+          <c:h val="0.7441126589945487"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -2490,14 +2500,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>863600</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2526,14 +2536,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2548,8 +2558,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="2006600"/>
-          <a:ext cx="6299200" cy="4127500"/>
+          <a:off x="0" y="1752600"/>
+          <a:ext cx="6413500" cy="4127500"/>
           <a:chOff x="0" y="1809750"/>
           <a:chExt cx="9004300" cy="4324350"/>
         </a:xfrm>
@@ -2632,16 +2642,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2656,8 +2666,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4876800" y="5803900"/>
-          <a:ext cx="1219200" cy="292100"/>
+          <a:off x="5448300" y="5575300"/>
+          <a:ext cx="965200" cy="292100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3203,23 +3213,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95414C99-5AE8-7D4D-BD87-388EC5AED89A}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="8.5" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
-    <col min="5" max="5" width="7.83203125" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" customWidth="1"/>
-    <col min="11" max="11" width="7.83203125" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="3" width="7.33203125" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" customWidth="1"/>
+    <col min="6" max="6" width="7.5" customWidth="1"/>
+    <col min="7" max="7" width="6.83203125" customWidth="1"/>
+    <col min="8" max="10" width="7.1640625" customWidth="1"/>
+    <col min="11" max="11" width="7" customWidth="1"/>
     <col min="12" max="12" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
